--- a/biology/Zoologie/Apidioplana/Apidioplana.xlsx
+++ b/biology/Zoologie/Apidioplana/Apidioplana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apidioplanidae
 Apidioplana est un genre de vers plats marins, le seul de la famille des Apidioplanidae. Cette famille appartient au sous-ordre des Acotylea de l'ordre des Polycladia.
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les noms valides complets (avec auteur) de ces taxons sont:
-pour la famille : Apidioplanidae Bock, 1926[1]
-pour le genre : Apidioplana Bock, 1926[1].</t>
+pour la famille : Apidioplanidae Bock, 1926
+pour le genre : Apidioplana Bock, 1926.</t>
         </is>
       </c>
     </row>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la base de données World Register of Marine Species                               (11 novembre 2023)[1], le genre Apidioplana regroupe les espèces suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (11 novembre 2023), le genre Apidioplana regroupe les espèces suivantes :
 Apidioplana apluda Cannon, 1990
 Apidioplana mira Bock, 1926
 Apidioplana okadai Kato, 1944
